--- a/BNFStragleTestReport.xlsx
+++ b/BNFStragleTestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>DATE</t>
   </si>
@@ -102,6 +102,84 @@
   </si>
   <si>
     <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
   </si>
 </sst>
 </file>
@@ -146,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,13 +255,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>-25.9</v>
+        <v>-23.9</v>
       </c>
       <c r="D2" t="n">
-        <v>-647.5</v>
+        <v>-597.5</v>
       </c>
       <c r="E2" t="n">
-        <v>-2590.0</v>
+        <v>-2390.0</v>
       </c>
     </row>
     <row r="3">
@@ -194,13 +272,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>29.550000000000004</v>
+        <v>31.550000000000004</v>
       </c>
       <c r="D3" t="n">
-        <v>738.7500000000001</v>
+        <v>788.7500000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>2955.0000000000005</v>
+        <v>3155.0000000000005</v>
       </c>
     </row>
     <row r="4">
@@ -211,13 +289,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0499999999999954</v>
+        <v>3.0499999999999954</v>
       </c>
       <c r="D4" t="n">
-        <v>26.249999999999886</v>
+        <v>76.24999999999989</v>
       </c>
       <c r="E4" t="n">
-        <v>104.99999999999955</v>
+        <v>304.99999999999955</v>
       </c>
     </row>
     <row r="5">
@@ -228,13 +306,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>11.549999999999997</v>
+        <v>13.549999999999997</v>
       </c>
       <c r="D5" t="n">
-        <v>288.74999999999994</v>
+        <v>338.74999999999994</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.9999999999998</v>
+        <v>1354.9999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -245,13 +323,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>-25.45</v>
+        <v>-23.45</v>
       </c>
       <c r="D6" t="n">
-        <v>-636.25</v>
+        <v>-586.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-2545.0</v>
+        <v>-2345.0</v>
       </c>
     </row>
     <row r="7">
@@ -262,13 +340,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>26.825000000000003</v>
+        <v>28.825000000000003</v>
       </c>
       <c r="D7" t="n">
-        <v>670.6250000000001</v>
+        <v>720.6250000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>2682.5000000000005</v>
+        <v>2882.5000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -279,13 +357,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>2.1999999999999957</v>
+        <v>4.199999999999996</v>
       </c>
       <c r="D8" t="n">
-        <v>54.99999999999989</v>
+        <v>104.99999999999989</v>
       </c>
       <c r="E8" t="n">
-        <v>219.99999999999957</v>
+        <v>419.99999999999955</v>
       </c>
     </row>
     <row r="9">
@@ -296,13 +374,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>6.399999999999999</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>159.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="E9" t="n">
-        <v>639.9999999999999</v>
+        <v>839.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -313,13 +391,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
-        <v>260.0</v>
+        <v>310.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1040.0</v>
+        <v>1240.0</v>
       </c>
     </row>
     <row r="11">
@@ -330,13 +408,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>17.849999999999998</v>
+        <v>19.849999999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>446.24999999999994</v>
+        <v>496.24999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>1784.9999999999998</v>
+        <v>1984.9999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -347,13 +425,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.475000000000001</v>
+        <v>-2.4750000000000014</v>
       </c>
       <c r="D12" t="n">
-        <v>-111.87500000000003</v>
+        <v>-61.875000000000036</v>
       </c>
       <c r="E12" t="n">
-        <v>-447.5000000000001</v>
+        <v>-247.50000000000014</v>
       </c>
     </row>
     <row r="13">
@@ -364,13 +442,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.3000000000000007</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="D13" t="n">
-        <v>-57.500000000000014</v>
+        <v>-7.500000000000018</v>
       </c>
       <c r="E13" t="n">
-        <v>-230.00000000000006</v>
+        <v>-30.00000000000007</v>
       </c>
     </row>
     <row r="14">
@@ -381,13 +459,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D14" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="15">
@@ -398,13 +476,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>4.4999999999999964</v>
+        <v>6.4999999999999964</v>
       </c>
       <c r="D15" t="n">
-        <v>112.49999999999991</v>
+        <v>162.49999999999991</v>
       </c>
       <c r="E15" t="n">
-        <v>449.99999999999966</v>
+        <v>649.9999999999997</v>
       </c>
     </row>
     <row r="16">
@@ -415,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>18.799999999999997</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="D16" t="n">
-        <v>469.99999999999994</v>
+        <v>519.9999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>1879.9999999999998</v>
+        <v>2079.9999999999995</v>
       </c>
     </row>
     <row r="17">
@@ -432,13 +510,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>32.55</v>
+        <v>34.55</v>
       </c>
       <c r="D17" t="n">
-        <v>813.7499999999999</v>
+        <v>863.7499999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>3254.9999999999995</v>
+        <v>3454.9999999999995</v>
       </c>
     </row>
     <row r="18">
@@ -449,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.2499999999999982</v>
+        <v>-1.2499999999999982</v>
       </c>
       <c r="D18" t="n">
-        <v>-81.24999999999996</v>
+        <v>-31.249999999999957</v>
       </c>
       <c r="E18" t="n">
-        <v>-324.99999999999983</v>
+        <v>-124.99999999999983</v>
       </c>
     </row>
     <row r="19">
@@ -466,13 +544,13 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>11.85</v>
+        <v>13.85</v>
       </c>
       <c r="D19" t="n">
-        <v>296.25</v>
+        <v>346.25</v>
       </c>
       <c r="E19" t="n">
-        <v>1185.0</v>
+        <v>1385.0</v>
       </c>
     </row>
     <row r="20">
@@ -483,13 +561,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D20" t="n">
-        <v>287.5</v>
+        <v>337.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1150.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="21">
@@ -500,13 +578,446 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>9.300000000000002</v>
+        <v>11.300000000000002</v>
       </c>
       <c r="D21" t="n">
-        <v>232.50000000000006</v>
+        <v>282.50000000000006</v>
       </c>
       <c r="E21" t="n">
-        <v>930.0000000000002</v>
+        <v>1130.0000000000002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.349999999999998</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-183.74999999999994</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-734.9999999999998</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.100000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>177.50000000000003</v>
+      </c>
+      <c r="E23" t="n">
+        <v>710.0000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1115.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-11.974999999999998</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-299.37499999999994</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1197.4999999999998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.049999999999997</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-426.24999999999994</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1704.9999999999998</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1250.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.8500000000000014</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96.25000000000003</v>
+      </c>
+      <c r="E28" t="n">
+        <v>385.0000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2290.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4110.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.9499999999999975</v>
+      </c>
+      <c r="D31" t="n">
+        <v>73.74999999999994</v>
+      </c>
+      <c r="E31" t="n">
+        <v>294.9999999999998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.899999999999997</v>
+      </c>
+      <c r="D33" t="n">
+        <v>272.49999999999994</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1089.9999999999998</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-11.600000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-290.00000000000006</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1160.0000000000002</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.50000000000007</v>
+      </c>
+      <c r="E35" t="n">
+        <v>70.00000000000028</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.549999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1455.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-20.45</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-511.25</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2045.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>365.00000000000006</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1460.0000000000002</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-58.35</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1458.75</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-5835.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D40" t="n">
+        <v>291.25</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1165.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13.649999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>341.24999999999994</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1364.9999999999998</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.099999999999998</v>
+      </c>
+      <c r="D42" t="n">
+        <v>302.49999999999994</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1209.9999999999998</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.250000000000002</v>
+      </c>
+      <c r="D43" t="n">
+        <v>281.25000000000006</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1125.0000000000002</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-3.875</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-96.875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-387.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="D46" t="n">
+        <v>299.99999999999994</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1199.9999999999998</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.4999999999999982</v>
+      </c>
+      <c r="D47" t="n">
+        <v>62.49999999999996</v>
+      </c>
+      <c r="E47" t="n">
+        <v>249.99999999999983</v>
       </c>
     </row>
   </sheetData>

--- a/BNFStragleTestReport.xlsx
+++ b/BNFStragleTestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>DATE</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1020,6 +1026,40 @@
         <v>249.99999999999983</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.100000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>152.50000000000003</v>
+      </c>
+      <c r="E48" t="n">
+        <v>610.0000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="D49" t="n">
+        <v>911.2500000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3645.0000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
